--- a/src/TuyenSinhWinApp/Templates/Mẫu.xlsx
+++ b/src/TuyenSinhWinApp/Templates/Mẫu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCM\Downloads\Danh sách trúng tuyển\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCM\source\repos\TuyenSinh10Solution\src\TuyenSinhWinApp\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC74DFB0-E688-4C37-B279-98DC190A6E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C471D94D-1418-4EF1-848C-D7F88EC8B768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43545610-47D3-4B84-87E5-521218CC0073}"/>
   </bookViews>
@@ -80,34 +80,34 @@
     <t>Văn</t>
   </si>
   <si>
+    <t>Sở Giáo Dục &amp; Đào Tạo Trà Vinh</t>
+  </si>
+  <si>
+    <t>Trường: Thực hành Sư Phạm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khóa ngày: </t>
+  </si>
+  <si>
+    <t>DANH SÁCH KỲ THI TUYỂN SINH LỚP 10</t>
+  </si>
+  <si>
+    <t>Năm học 2025 - 2026</t>
+  </si>
+  <si>
+    <t>Người lập bảng</t>
+  </si>
+  <si>
+    <t>Trà Vinh, ngày 22/08/2025</t>
+  </si>
+  <si>
+    <t>Điểm ƯT</t>
+  </si>
+  <si>
+    <t>Điểm KK</t>
+  </si>
+  <si>
     <t>Anh</t>
-  </si>
-  <si>
-    <t>Sở Giáo Dục &amp; Đào Tạo Trà Vinh</t>
-  </si>
-  <si>
-    <t>Trường: Thực hành Sư Phạm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khóa ngày: </t>
-  </si>
-  <si>
-    <t>DANH SÁCH KỲ THI TUYỂN SINH LỚP 10</t>
-  </si>
-  <si>
-    <t>Năm học 2025 - 2026</t>
-  </si>
-  <si>
-    <t>Người lập bảng</t>
-  </si>
-  <si>
-    <t>Trà Vinh, ngày 22/08/2025</t>
-  </si>
-  <si>
-    <t>Điểm ƯT</t>
-  </si>
-  <si>
-    <t>Điểm KK</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E11"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -563,7 +563,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -578,13 +578,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -595,13 +595,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -636,10 +636,10 @@
         <v>7</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>8</v>
@@ -674,7 +674,7 @@
         <v>13</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -683,7 +683,7 @@
     <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -695,7 +695,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
